--- a/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 2 Drones/vel10/field_100ha_100ha_14%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -3277,28 +3277,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>8567.823194053453</v>
+        <v>8809.301559271828</v>
       </c>
       <c r="AB2" t="n">
-        <v>11722.87367978704</v>
+        <v>12053.27503235244</v>
       </c>
       <c r="AC2" t="n">
-        <v>10604.05906894426</v>
+        <v>10902.92738014202</v>
       </c>
       <c r="AD2" t="n">
-        <v>8567823.194053452</v>
+        <v>8809301.559271827</v>
       </c>
       <c r="AE2" t="n">
-        <v>11722873.67978704</v>
+        <v>12053275.03235244</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.60925623758239e-07</v>
+        <v>8.086665107956864e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>55</v>
+        <v>54.18125</v>
       </c>
       <c r="AH2" t="n">
-        <v>10604059.06894426</v>
+        <v>10902927.38014202</v>
       </c>
     </row>
     <row r="3">
@@ -3383,28 +3383,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2858.388630852518</v>
+        <v>2987.803806930199</v>
       </c>
       <c r="AB3" t="n">
-        <v>3910.973427939115</v>
+        <v>4088.044981243228</v>
       </c>
       <c r="AC3" t="n">
-        <v>3537.715613062139</v>
+        <v>3697.887705840386</v>
       </c>
       <c r="AD3" t="n">
-        <v>2858388.630852519</v>
+        <v>2987803.806930199</v>
       </c>
       <c r="AE3" t="n">
-        <v>3910973.427939115</v>
+        <v>4088044.981243228</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.057078561704083e-06</v>
+        <v>1.523952545442274e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.75</v>
       </c>
       <c r="AH3" t="n">
-        <v>3537715.613062139</v>
+        <v>3697887.705840386</v>
       </c>
     </row>
     <row r="4">
@@ -3489,28 +3489,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2178.821218460177</v>
+        <v>2290.969658946893</v>
       </c>
       <c r="AB4" t="n">
-        <v>2981.159313905364</v>
+        <v>3134.605757819477</v>
       </c>
       <c r="AC4" t="n">
-        <v>2696.641653069611</v>
+        <v>2835.443383739879</v>
       </c>
       <c r="AD4" t="n">
-        <v>2178821.218460177</v>
+        <v>2290969.658946893</v>
       </c>
       <c r="AE4" t="n">
-        <v>2981159.313905364</v>
+        <v>3134605.757819477</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.240455287078363e-06</v>
+        <v>1.78832024481033e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.50208333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2696641.653069612</v>
+        <v>2835443.383739879</v>
       </c>
     </row>
     <row r="5">
@@ -3595,28 +3595,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1897.346940584719</v>
+        <v>2000.862013275949</v>
       </c>
       <c r="AB5" t="n">
-        <v>2596.033789147425</v>
+        <v>2737.667678366268</v>
       </c>
       <c r="AC5" t="n">
-        <v>2348.271967867502</v>
+        <v>2476.388517483709</v>
       </c>
       <c r="AD5" t="n">
-        <v>1897346.940584719</v>
+        <v>2000862.013275949</v>
       </c>
       <c r="AE5" t="n">
-        <v>2596033.789147425</v>
+        <v>2737667.678366268</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.338927275644504e-06</v>
+        <v>1.930283806523487e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.7</v>
       </c>
       <c r="AH5" t="n">
-        <v>2348271.967867502</v>
+        <v>2476388.517483709</v>
       </c>
     </row>
     <row r="6">
@@ -3701,28 +3701,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1733.070551903377</v>
+        <v>1828.037597653696</v>
       </c>
       <c r="AB6" t="n">
-        <v>2371.263586790839</v>
+        <v>2501.201688436792</v>
       </c>
       <c r="AC6" t="n">
-        <v>2144.953518156868</v>
+        <v>2262.490509751002</v>
       </c>
       <c r="AD6" t="n">
-        <v>1733070.551903378</v>
+        <v>1828037.597653696</v>
       </c>
       <c r="AE6" t="n">
-        <v>2371263.586790839</v>
+        <v>2501201.688436792</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.40049050405178e-06</v>
+        <v>2.019037322142676e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.70208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>2144953.518156867</v>
+        <v>2262490.509751002</v>
       </c>
     </row>
     <row r="7">
@@ -3807,28 +3807,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1623.110311582911</v>
+        <v>1709.444079046297</v>
       </c>
       <c r="AB7" t="n">
-        <v>2220.811134880948</v>
+        <v>2338.936804301364</v>
       </c>
       <c r="AC7" t="n">
-        <v>2008.860037095914</v>
+        <v>2115.711958417263</v>
       </c>
       <c r="AD7" t="n">
-        <v>1623110.311582912</v>
+        <v>1709444.079046298</v>
       </c>
       <c r="AE7" t="n">
-        <v>2220811.134880948</v>
+        <v>2338936.804301364</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.443088756883355e-06</v>
+        <v>2.080449707357849e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>22</v>
+        <v>21.06041666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>2008860.037095914</v>
+        <v>2115711.958417263</v>
       </c>
     </row>
     <row r="8">
@@ -3913,28 +3913,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1525.880035428629</v>
+        <v>1620.761740324376</v>
       </c>
       <c r="AB8" t="n">
-        <v>2087.776381549613</v>
+        <v>2217.597716073368</v>
       </c>
       <c r="AC8" t="n">
-        <v>1888.521933907072</v>
+        <v>2005.953302469268</v>
       </c>
       <c r="AD8" t="n">
-        <v>1525880.035428629</v>
+        <v>1620761.740324376</v>
       </c>
       <c r="AE8" t="n">
-        <v>2087776.381549613</v>
+        <v>2217597.716073368</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.474308024369509e-06</v>
+        <v>2.125457414330613e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.61458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1888521.933907072</v>
+        <v>2005953.302469268</v>
       </c>
     </row>
     <row r="9">
@@ -4019,28 +4019,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1458.390958287358</v>
+        <v>1544.639384896173</v>
       </c>
       <c r="AB9" t="n">
-        <v>1995.434848796977</v>
+        <v>2113.443751095195</v>
       </c>
       <c r="AC9" t="n">
-        <v>1804.993347438193</v>
+        <v>1911.739645727603</v>
       </c>
       <c r="AD9" t="n">
-        <v>1458390.958287358</v>
+        <v>1544639.384896173</v>
       </c>
       <c r="AE9" t="n">
-        <v>1995434.848796977</v>
+        <v>2113443.751095195</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.495461266357791e-06</v>
+        <v>2.155953290550476e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.32291666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1804993.347438193</v>
+        <v>1911739.645727603</v>
       </c>
     </row>
     <row r="10">
@@ -4125,28 +4125,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1437.598072895134</v>
+        <v>1523.846499503949</v>
       </c>
       <c r="AB10" t="n">
-        <v>1966.985105685975</v>
+        <v>2084.994007984192</v>
       </c>
       <c r="AC10" t="n">
-        <v>1779.258807880239</v>
+        <v>1886.005106169649</v>
       </c>
       <c r="AD10" t="n">
-        <v>1437598.072895135</v>
+        <v>1523846.499503949</v>
       </c>
       <c r="AE10" t="n">
-        <v>1966985.105685974</v>
+        <v>2084994.007984192</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.502609603305556e-06</v>
+        <v>2.166258793548913e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.22708333333334</v>
       </c>
       <c r="AH10" t="n">
-        <v>1779258.807880239</v>
+        <v>1886005.106169649</v>
       </c>
     </row>
     <row r="11">
@@ -4231,28 +4231,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>1443.668111686696</v>
+        <v>1529.91653829551</v>
       </c>
       <c r="AB11" t="n">
-        <v>1975.290400551801</v>
+        <v>2093.299302850018</v>
       </c>
       <c r="AC11" t="n">
-        <v>1786.771457060625</v>
+        <v>1893.517755350035</v>
       </c>
       <c r="AD11" t="n">
-        <v>1443668.111686696</v>
+        <v>1529916.53829551</v>
       </c>
       <c r="AE11" t="n">
-        <v>1975290.400551801</v>
+        <v>2093299.302850018</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.502755487733061e-06</v>
+        <v>2.166469109936636e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>21</v>
+        <v>20.225</v>
       </c>
       <c r="AH11" t="n">
-        <v>1786771.457060625</v>
+        <v>1893517.755350035</v>
       </c>
     </row>
   </sheetData>
@@ -4528,28 +4528,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5146.955892337365</v>
+        <v>5332.05386969286</v>
       </c>
       <c r="AB2" t="n">
-        <v>7042.292119564723</v>
+        <v>7295.551338128965</v>
       </c>
       <c r="AC2" t="n">
-        <v>6370.185643592268</v>
+        <v>6599.274157788272</v>
       </c>
       <c r="AD2" t="n">
-        <v>5146955.892337365</v>
+        <v>5332053.86969286</v>
       </c>
       <c r="AE2" t="n">
-        <v>7042292.119564723</v>
+        <v>7295551.338128964</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.394854561328564e-07</v>
+        <v>1.082578889109984e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>43</v>
+        <v>42.51666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>6370185.643592268</v>
+        <v>6599274.157788272</v>
       </c>
     </row>
     <row r="3">
@@ -4634,28 +4634,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2231.09602897749</v>
+        <v>2340.43728384651</v>
       </c>
       <c r="AB3" t="n">
-        <v>3052.684015857204</v>
+        <v>3202.289544564723</v>
       </c>
       <c r="AC3" t="n">
-        <v>2761.340137852603</v>
+        <v>2896.667524872948</v>
       </c>
       <c r="AD3" t="n">
-        <v>2231096.02897749</v>
+        <v>2340437.28384651</v>
       </c>
       <c r="AE3" t="n">
-        <v>3052684.015857204</v>
+        <v>3202289.544564723</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.196457284943119e-06</v>
+        <v>1.751568455686521e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.27916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2761340.137852603</v>
+        <v>2896667.524872948</v>
       </c>
     </row>
     <row r="4">
@@ -4740,28 +4740,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1763.492845657194</v>
+        <v>1856.084594270778</v>
       </c>
       <c r="AB4" t="n">
-        <v>2412.888711241688</v>
+        <v>2539.576826554448</v>
       </c>
       <c r="AC4" t="n">
-        <v>2182.605999151356</v>
+        <v>2297.203178546552</v>
       </c>
       <c r="AD4" t="n">
-        <v>1763492.845657194</v>
+        <v>1856084.594270778</v>
       </c>
       <c r="AE4" t="n">
-        <v>2412888.711241688</v>
+        <v>2539576.826554448</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.363822462667882e-06</v>
+        <v>1.996584779772842e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.05416666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>2182605.999151356</v>
+        <v>2297203.178546553</v>
       </c>
     </row>
     <row r="5">
@@ -4846,28 +4846,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1545.564716984434</v>
+        <v>1638.156376089467</v>
       </c>
       <c r="AB5" t="n">
-        <v>2114.709831281124</v>
+        <v>2241.397824124336</v>
       </c>
       <c r="AC5" t="n">
-        <v>1912.884892997542</v>
+        <v>2027.481961611513</v>
       </c>
       <c r="AD5" t="n">
-        <v>1545564.716984434</v>
+        <v>1638156.376089467</v>
       </c>
       <c r="AE5" t="n">
-        <v>2114709.831281125</v>
+        <v>2241397.824124336</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.452258886605404e-06</v>
+        <v>2.126052377531709e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.65</v>
       </c>
       <c r="AH5" t="n">
-        <v>1912884.892997542</v>
+        <v>2027481.961611513</v>
       </c>
     </row>
     <row r="6">
@@ -4952,28 +4952,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1406.616722825669</v>
+        <v>1499.123041076131</v>
       </c>
       <c r="AB6" t="n">
-        <v>1924.595055720231</v>
+        <v>2051.166281441245</v>
       </c>
       <c r="AC6" t="n">
-        <v>1740.914404788417</v>
+        <v>1855.405850370449</v>
       </c>
       <c r="AD6" t="n">
-        <v>1406616.722825669</v>
+        <v>1499123.041076131</v>
       </c>
       <c r="AE6" t="n">
-        <v>1924595.055720231</v>
+        <v>2051166.281441245</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.506739345720498e-06</v>
+        <v>2.205809720178384e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.86666666666666</v>
       </c>
       <c r="AH6" t="n">
-        <v>1740914.404788418</v>
+        <v>1855405.850370449</v>
       </c>
     </row>
     <row r="7">
@@ -5058,28 +5058,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1327.416659099378</v>
+        <v>1411.505643303388</v>
       </c>
       <c r="AB7" t="n">
-        <v>1816.230034469706</v>
+        <v>1931.284292401795</v>
       </c>
       <c r="AC7" t="n">
-        <v>1642.89158907478</v>
+        <v>1746.965230109495</v>
       </c>
       <c r="AD7" t="n">
-        <v>1327416.659099378</v>
+        <v>1411505.643303388</v>
       </c>
       <c r="AE7" t="n">
-        <v>1816230.034469706</v>
+        <v>1931284.292401795</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.536771510163444e-06</v>
+        <v>2.249775679144279e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.45833333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1642891.58907478</v>
+        <v>1746965.230109495</v>
       </c>
     </row>
     <row r="8">
@@ -5164,28 +5164,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1321.388686363193</v>
+        <v>1405.477670567203</v>
       </c>
       <c r="AB8" t="n">
-        <v>1807.98229623667</v>
+        <v>1923.036554168758</v>
       </c>
       <c r="AC8" t="n">
-        <v>1635.431003402932</v>
+        <v>1739.504644437646</v>
       </c>
       <c r="AD8" t="n">
-        <v>1321388.686363193</v>
+        <v>1405477.670567203</v>
       </c>
       <c r="AE8" t="n">
-        <v>1807982.29623667</v>
+        <v>1923036.554168758</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.540544395143714e-06</v>
+        <v>2.255299040823411e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.40833333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1635431.003402932</v>
+        <v>1739504.644437646</v>
       </c>
     </row>
   </sheetData>
@@ -5461,28 +5461,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1629.28619827085</v>
+        <v>1737.942899695636</v>
       </c>
       <c r="AB2" t="n">
-        <v>2229.261255508277</v>
+        <v>2377.930147993022</v>
       </c>
       <c r="AC2" t="n">
-        <v>2016.503690070389</v>
+        <v>2150.983832114491</v>
       </c>
       <c r="AD2" t="n">
-        <v>1629286.19827085</v>
+        <v>1737942.899695636</v>
       </c>
       <c r="AE2" t="n">
-        <v>2229261.255508277</v>
+        <v>2377930.147993022</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.30762289802158e-06</v>
+        <v>2.023054026945507e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.83125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2016503.69007039</v>
+        <v>2150983.832114491</v>
       </c>
     </row>
     <row r="3">
@@ -5567,28 +5567,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1063.265766948863</v>
+        <v>1156.302550050598</v>
       </c>
       <c r="AB3" t="n">
-        <v>1454.807130314474</v>
+        <v>1582.104161447458</v>
       </c>
       <c r="AC3" t="n">
-        <v>1315.962379631891</v>
+        <v>1431.110360776048</v>
       </c>
       <c r="AD3" t="n">
-        <v>1063265.766948863</v>
+        <v>1156302.550050598</v>
       </c>
       <c r="AE3" t="n">
-        <v>1454807.130314474</v>
+        <v>1582104.161447458</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.607879385745015e-06</v>
+        <v>2.487587874987212e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.82083333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>1315962.379631891</v>
+        <v>1431110.360776048</v>
       </c>
     </row>
     <row r="4">
@@ -5673,28 +5673,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1067.16768592509</v>
+        <v>1160.204469026826</v>
       </c>
       <c r="AB4" t="n">
-        <v>1460.145907998265</v>
+        <v>1587.442939131248</v>
       </c>
       <c r="AC4" t="n">
-        <v>1320.791631866562</v>
+        <v>1435.939613010719</v>
       </c>
       <c r="AD4" t="n">
-        <v>1067167.68592509</v>
+        <v>1160204.469026826</v>
       </c>
       <c r="AE4" t="n">
-        <v>1460145.907998265</v>
+        <v>1587442.939131248</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.610236980152266e-06</v>
+        <v>2.491235364539979e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.7875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1320791.631866562</v>
+        <v>1435939.613010719</v>
       </c>
     </row>
   </sheetData>
@@ -5970,28 +5970,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2494.289971136853</v>
+        <v>2622.462827124174</v>
       </c>
       <c r="AB2" t="n">
-        <v>3412.797578816908</v>
+        <v>3588.169334966097</v>
       </c>
       <c r="AC2" t="n">
-        <v>3087.084967785979</v>
+        <v>3245.719489664088</v>
       </c>
       <c r="AD2" t="n">
-        <v>2494289.971136853</v>
+        <v>2622462.827124174</v>
       </c>
       <c r="AE2" t="n">
-        <v>3412797.578816908</v>
+        <v>3588169.334966097</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.07552065114056e-06</v>
+        <v>1.625427873000776e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>32</v>
+        <v>31.20416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3087084.967785979</v>
+        <v>3245719.489664088</v>
       </c>
     </row>
     <row r="3">
@@ -6076,28 +6076,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1421.760706539669</v>
+        <v>1509.996916677411</v>
       </c>
       <c r="AB3" t="n">
-        <v>1945.315722343134</v>
+        <v>2066.04439776045</v>
       </c>
       <c r="AC3" t="n">
-        <v>1759.657520070469</v>
+        <v>1868.864020149716</v>
       </c>
       <c r="AD3" t="n">
-        <v>1421760.706539669</v>
+        <v>1509996.91667741</v>
       </c>
       <c r="AE3" t="n">
-        <v>1945315.722343134</v>
+        <v>2066044.39776045</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.458461422225208e-06</v>
+        <v>2.204163950610549e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.0125</v>
       </c>
       <c r="AH3" t="n">
-        <v>1759657.520070469</v>
+        <v>1868864.020149716</v>
       </c>
     </row>
     <row r="4">
@@ -6182,28 +6182,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1165.646371123197</v>
+        <v>1253.711899551795</v>
       </c>
       <c r="AB4" t="n">
-        <v>1594.88878965928</v>
+        <v>1715.3839308322</v>
       </c>
       <c r="AC4" t="n">
-        <v>1442.674842014673</v>
+        <v>1551.670096030042</v>
       </c>
       <c r="AD4" t="n">
-        <v>1165646.371123197</v>
+        <v>1253711.899551795</v>
       </c>
       <c r="AE4" t="n">
-        <v>1594888.78965928</v>
+        <v>1715383.9308322</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.587665670609679e-06</v>
+        <v>2.39942955189075e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.13958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>1442674.842014672</v>
+        <v>1551670.096030042</v>
       </c>
     </row>
     <row r="5">
@@ -6288,28 +6288,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1155.707372805178</v>
+        <v>1235.922117431175</v>
       </c>
       <c r="AB5" t="n">
-        <v>1581.289813682907</v>
+        <v>1691.043166104972</v>
       </c>
       <c r="AC5" t="n">
-        <v>1430.373733219202</v>
+        <v>1529.652379725902</v>
       </c>
       <c r="AD5" t="n">
-        <v>1155707.372805178</v>
+        <v>1235922.117431175</v>
       </c>
       <c r="AE5" t="n">
-        <v>1581289.813682907</v>
+        <v>1691043.166104971</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.595881900868542e-06</v>
+        <v>2.411846691124279e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.02916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1430373.733219202</v>
+        <v>1529652.379725902</v>
       </c>
     </row>
   </sheetData>
@@ -6585,28 +6585,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1135.237992805076</v>
+        <v>1225.858481104749</v>
       </c>
       <c r="AB2" t="n">
-        <v>1553.282704921455</v>
+        <v>1677.273654906855</v>
       </c>
       <c r="AC2" t="n">
-        <v>1405.03958360972</v>
+        <v>1517.197011350904</v>
       </c>
       <c r="AD2" t="n">
-        <v>1135237.992805076</v>
+        <v>1225858.481104749</v>
       </c>
       <c r="AE2" t="n">
-        <v>1553282.704921455</v>
+        <v>1677273.654906855</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.513734873904585e-06</v>
+        <v>2.392439788768863e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.07083333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>1405039.58360972</v>
+        <v>1517197.011350904</v>
       </c>
     </row>
     <row r="3">
@@ -6691,28 +6691,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1013.427194733434</v>
+        <v>1104.047593524556</v>
       </c>
       <c r="AB3" t="n">
-        <v>1386.615797086695</v>
+        <v>1510.606624602546</v>
       </c>
       <c r="AC3" t="n">
-        <v>1254.279131540234</v>
+        <v>1366.436448500192</v>
       </c>
       <c r="AD3" t="n">
-        <v>1013427.194733434</v>
+        <v>1104047.593524556</v>
       </c>
       <c r="AE3" t="n">
-        <v>1386615.797086695</v>
+        <v>1510606.624602546</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.596111433766983e-06</v>
+        <v>2.522634952317116e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.82916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1254279.131540234</v>
+        <v>1366436.448500192</v>
       </c>
     </row>
   </sheetData>
@@ -6988,28 +6988,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>5826.184709559887</v>
+        <v>6020.920318365422</v>
       </c>
       <c r="AB2" t="n">
-        <v>7971.642952749192</v>
+        <v>8238.088803845669</v>
       </c>
       <c r="AC2" t="n">
-        <v>7210.84053760966</v>
+        <v>7451.857170636581</v>
       </c>
       <c r="AD2" t="n">
-        <v>5826184.709559887</v>
+        <v>6020920.318365422</v>
       </c>
       <c r="AE2" t="n">
-        <v>7971642.952749192</v>
+        <v>8238088.803845668</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.920129031350582e-07</v>
+        <v>1.008876123228355e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>46</v>
+        <v>45.025</v>
       </c>
       <c r="AH2" t="n">
-        <v>7210840.53760966</v>
+        <v>7451857.170636581</v>
       </c>
     </row>
     <row r="3">
@@ -7094,28 +7094,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2374.83874915403</v>
+        <v>2493.391965433623</v>
       </c>
       <c r="AB3" t="n">
-        <v>3249.359147084012</v>
+        <v>3411.568887796534</v>
       </c>
       <c r="AC3" t="n">
-        <v>2939.244870590397</v>
+        <v>3085.973541312111</v>
       </c>
       <c r="AD3" t="n">
-        <v>2374838.74915403</v>
+        <v>2493391.965433623</v>
       </c>
       <c r="AE3" t="n">
-        <v>3249359.147084012</v>
+        <v>3411568.887796534</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.159686200758427e-06</v>
+        <v>1.690690611522079e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>27</v>
+        <v>26.86875</v>
       </c>
       <c r="AH3" t="n">
-        <v>2939244.870590397</v>
+        <v>3085973.541312111</v>
       </c>
     </row>
     <row r="4">
@@ -7200,28 +7200,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1863.380921743428</v>
+        <v>1964.900521372119</v>
       </c>
       <c r="AB4" t="n">
-        <v>2549.559983693777</v>
+        <v>2688.463578634395</v>
       </c>
       <c r="AC4" t="n">
-        <v>2306.233557179954</v>
+        <v>2431.880387971859</v>
       </c>
       <c r="AD4" t="n">
-        <v>1863380.921743427</v>
+        <v>1964900.521372119</v>
       </c>
       <c r="AE4" t="n">
-        <v>2549559.983693777</v>
+        <v>2688463.578634395</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.330782539895342e-06</v>
+        <v>1.940129618432224e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.4125</v>
       </c>
       <c r="AH4" t="n">
-        <v>2306233.557179953</v>
+        <v>2431880.387971859</v>
       </c>
     </row>
     <row r="5">
@@ -7306,28 +7306,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1634.952246530473</v>
+        <v>1736.471756650613</v>
       </c>
       <c r="AB5" t="n">
-        <v>2237.0137927055</v>
+        <v>2375.917265176571</v>
       </c>
       <c r="AC5" t="n">
-        <v>2023.516335998264</v>
+        <v>2149.163056008943</v>
       </c>
       <c r="AD5" t="n">
-        <v>1634952.246530473</v>
+        <v>1736471.756650613</v>
       </c>
       <c r="AE5" t="n">
-        <v>2237013.7927055</v>
+        <v>2375917.265176571</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.420667941837026e-06</v>
+        <v>2.071172313496032e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.93125</v>
       </c>
       <c r="AH5" t="n">
-        <v>2023516.335998264</v>
+        <v>2149163.056008943</v>
       </c>
     </row>
     <row r="6">
@@ -7412,28 +7412,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1497.954190362776</v>
+        <v>1582.69610639573</v>
       </c>
       <c r="AB6" t="n">
-        <v>2049.567008329178</v>
+        <v>2165.514636394948</v>
       </c>
       <c r="AC6" t="n">
-        <v>1853.959209639604</v>
+        <v>1958.840958816294</v>
       </c>
       <c r="AD6" t="n">
-        <v>1497954.190362776</v>
+        <v>1582696.10639573</v>
       </c>
       <c r="AE6" t="n">
-        <v>2049567.008329178</v>
+        <v>2165514.636394948</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.47794932111101e-06</v>
+        <v>2.154682050949341e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.08333333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1853959.209639604</v>
+        <v>1958840.958816295</v>
       </c>
     </row>
     <row r="7">
@@ -7518,28 +7518,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1386.957269062776</v>
+        <v>1480.087937385048</v>
       </c>
       <c r="AB7" t="n">
-        <v>1897.696123767953</v>
+        <v>2025.121612801599</v>
       </c>
       <c r="AC7" t="n">
-        <v>1716.582669148777</v>
+        <v>1831.846848351849</v>
       </c>
       <c r="AD7" t="n">
-        <v>1386957.269062776</v>
+        <v>1480087.937385048</v>
       </c>
       <c r="AE7" t="n">
-        <v>1897696.123767953</v>
+        <v>2025121.612801599</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.517433091681068e-06</v>
+        <v>2.212244898697836e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.53333333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1716582.669148777</v>
+        <v>1831846.848351849</v>
       </c>
     </row>
     <row r="8">
@@ -7624,28 +7624,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1347.513602299226</v>
+        <v>1432.170177477609</v>
       </c>
       <c r="AB8" t="n">
-        <v>1843.727558770298</v>
+        <v>1959.55841971387</v>
       </c>
       <c r="AC8" t="n">
-        <v>1667.764788249141</v>
+        <v>1772.540914393893</v>
       </c>
       <c r="AD8" t="n">
-        <v>1347513.602299226</v>
+        <v>1432170.177477609</v>
       </c>
       <c r="AE8" t="n">
-        <v>1843727.558770298</v>
+        <v>1959558.41971387</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.531192587485785e-06</v>
+        <v>2.232304678973827e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.34791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1667764.788249141</v>
+        <v>1772540.914393893</v>
       </c>
     </row>
     <row r="9">
@@ -7730,28 +7730,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1353.008151260602</v>
+        <v>1437.664726438985</v>
       </c>
       <c r="AB9" t="n">
-        <v>1851.245443061645</v>
+        <v>1967.076304005217</v>
       </c>
       <c r="AC9" t="n">
-        <v>1674.565176215139</v>
+        <v>1779.34130235989</v>
       </c>
       <c r="AD9" t="n">
-        <v>1353008.151260602</v>
+        <v>1437664.726438985</v>
       </c>
       <c r="AE9" t="n">
-        <v>1851245.443061645</v>
+        <v>1967076.304005217</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.530893468011769e-06</v>
+        <v>2.231868596793914e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.35208333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>1674565.176215139</v>
+        <v>1779341.30235989</v>
       </c>
     </row>
   </sheetData>
@@ -8027,28 +8027,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>987.0766582970552</v>
+        <v>1083.565682341482</v>
       </c>
       <c r="AB2" t="n">
-        <v>1350.56183063082</v>
+        <v>1482.582370123715</v>
       </c>
       <c r="AC2" t="n">
-        <v>1221.666105040848</v>
+        <v>1341.086789536532</v>
       </c>
       <c r="AD2" t="n">
-        <v>987076.6582970553</v>
+        <v>1083565.682341482</v>
       </c>
       <c r="AE2" t="n">
-        <v>1350561.83063082</v>
+        <v>1482582.370123715</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.569175226546276e-06</v>
+        <v>2.514187308544181e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.7625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1221666.105040848</v>
+        <v>1341086.789536532</v>
       </c>
     </row>
     <row r="3">
@@ -8133,28 +8133,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>994.2535403963089</v>
+        <v>1083.477884168834</v>
       </c>
       <c r="AB3" t="n">
-        <v>1360.381557340711</v>
+        <v>1482.462240790518</v>
       </c>
       <c r="AC3" t="n">
-        <v>1230.54865081562</v>
+        <v>1340.978125178293</v>
       </c>
       <c r="AD3" t="n">
-        <v>994253.540396309</v>
+        <v>1083477.884168834</v>
       </c>
       <c r="AE3" t="n">
-        <v>1360381.557340711</v>
+        <v>1482462.240790518</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.571323065341594e-06</v>
+        <v>2.517628650816626e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.72916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1230548.65081562</v>
+        <v>1340978.125178293</v>
       </c>
     </row>
   </sheetData>
@@ -8430,28 +8430,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3605.46824236195</v>
+        <v>3753.580821811441</v>
       </c>
       <c r="AB2" t="n">
-        <v>4933.16071123272</v>
+        <v>5135.814876701366</v>
       </c>
       <c r="AC2" t="n">
-        <v>4462.346776687027</v>
+        <v>4645.659913030246</v>
       </c>
       <c r="AD2" t="n">
-        <v>3605468.24236195</v>
+        <v>3753580.821811441</v>
       </c>
       <c r="AE2" t="n">
-        <v>4933160.71123272</v>
+        <v>5135814.876701366</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.929769202943194e-07</v>
+        <v>1.325930705292647e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>37</v>
+        <v>36.27708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>4462346.776687027</v>
+        <v>4645659.913030245</v>
       </c>
     </row>
     <row r="3">
@@ -8536,28 +8536,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1811.568706092227</v>
+        <v>1918.515131923303</v>
       </c>
       <c r="AB3" t="n">
-        <v>2478.668224446172</v>
+        <v>2624.997042411569</v>
       </c>
       <c r="AC3" t="n">
-        <v>2242.107607937731</v>
+        <v>2374.471008890296</v>
       </c>
       <c r="AD3" t="n">
-        <v>1811568.706092227</v>
+        <v>1918515.131923303</v>
       </c>
       <c r="AE3" t="n">
-        <v>2478668.224446172</v>
+        <v>2624997.042411569</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.316375171027635e-06</v>
+        <v>1.954610717570529e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.60833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2242107.607937731</v>
+        <v>2374471.008890296</v>
       </c>
     </row>
     <row r="4">
@@ -8642,28 +8642,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1463.253578440889</v>
+        <v>1553.73366813657</v>
       </c>
       <c r="AB4" t="n">
-        <v>2002.088100214699</v>
+        <v>2125.886950636167</v>
       </c>
       <c r="AC4" t="n">
-        <v>1811.011621878504</v>
+        <v>1922.995283768525</v>
       </c>
       <c r="AD4" t="n">
-        <v>1463253.578440889</v>
+        <v>1553733.66813657</v>
       </c>
       <c r="AE4" t="n">
-        <v>2002088.100214699</v>
+        <v>2125886.950636167</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.469221473073485e-06</v>
+        <v>2.181563509369706e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.05</v>
       </c>
       <c r="AH4" t="n">
-        <v>1811011.621878504</v>
+        <v>1922995.283768525</v>
       </c>
     </row>
     <row r="5">
@@ -8748,28 +8748,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1278.492909765838</v>
+        <v>1368.972909952968</v>
       </c>
       <c r="AB5" t="n">
-        <v>1749.290402268065</v>
+        <v>1873.089130219985</v>
       </c>
       <c r="AC5" t="n">
-        <v>1582.3405814201</v>
+        <v>1694.324132528895</v>
       </c>
       <c r="AD5" t="n">
-        <v>1278492.909765837</v>
+        <v>1368972.909952968</v>
       </c>
       <c r="AE5" t="n">
-        <v>1749290.402268065</v>
+        <v>1873089.130219985</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.548676671797218e-06</v>
+        <v>2.299542020671211e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.91666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1582340.5814201</v>
+        <v>1694324.132528895</v>
       </c>
     </row>
     <row r="6">
@@ -8854,28 +8854,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1232.102591576693</v>
+        <v>1322.582591763823</v>
       </c>
       <c r="AB6" t="n">
-        <v>1685.81712232528</v>
+        <v>1809.6158502772</v>
       </c>
       <c r="AC6" t="n">
-        <v>1524.925102229746</v>
+        <v>1636.908653338541</v>
       </c>
       <c r="AD6" t="n">
-        <v>1232102.591576693</v>
+        <v>1322582.591763823</v>
       </c>
       <c r="AE6" t="n">
-        <v>1685817.12232528</v>
+        <v>1809615.8502772</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.569512281638666e-06</v>
+        <v>2.33047963420233e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.63958333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1524925.102229746</v>
+        <v>1636908.653338541</v>
       </c>
     </row>
     <row r="7">
@@ -8960,28 +8960,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1238.232394459954</v>
+        <v>1328.712394647085</v>
       </c>
       <c r="AB7" t="n">
-        <v>1694.204189057976</v>
+        <v>1818.002917009896</v>
       </c>
       <c r="AC7" t="n">
-        <v>1532.511719084796</v>
+        <v>1644.495270193591</v>
       </c>
       <c r="AD7" t="n">
-        <v>1238232.394459954</v>
+        <v>1328712.394647085</v>
       </c>
       <c r="AE7" t="n">
-        <v>1694204.189057976</v>
+        <v>1818002.917009896</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.569512281638666e-06</v>
+        <v>2.33047963420233e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.63958333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>1532511.719084796</v>
+        <v>1644495.270193591</v>
       </c>
     </row>
   </sheetData>
@@ -9257,28 +9257,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4577.821808584487</v>
+        <v>4753.094504083905</v>
       </c>
       <c r="AB2" t="n">
-        <v>6263.57775775028</v>
+        <v>6503.393592218191</v>
       </c>
       <c r="AC2" t="n">
-        <v>5665.790687536953</v>
+        <v>5882.718835346875</v>
       </c>
       <c r="AD2" t="n">
-        <v>4577821.808584487</v>
+        <v>4753094.504083905</v>
       </c>
       <c r="AE2" t="n">
-        <v>6263577.75775028</v>
+        <v>6503393.59221819</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.874912319246691e-07</v>
+        <v>1.15796055937394e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>41</v>
+        <v>40.30416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>5665790.687536953</v>
+        <v>5882718.835346875</v>
       </c>
     </row>
     <row r="3">
@@ -9363,28 +9363,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2083.780017719829</v>
+        <v>2192.440597301238</v>
       </c>
       <c r="AB3" t="n">
-        <v>2851.119750130566</v>
+        <v>2999.793948880466</v>
       </c>
       <c r="AC3" t="n">
-        <v>2579.012882749805</v>
+        <v>2713.497824636451</v>
       </c>
       <c r="AD3" t="n">
-        <v>2083780.017719829</v>
+        <v>2192440.597301238</v>
       </c>
       <c r="AE3" t="n">
-        <v>2851119.750130565</v>
+        <v>2999793.948880466</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.234939819303805e-06</v>
+        <v>1.815907969488326e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.70208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>2579012.882749805</v>
+        <v>2713497.824636451</v>
       </c>
     </row>
     <row r="4">
@@ -9469,28 +9469,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1660.4826869725</v>
+        <v>1760.699419577688</v>
       </c>
       <c r="AB4" t="n">
-        <v>2271.945667641821</v>
+        <v>2409.066622442447</v>
       </c>
       <c r="AC4" t="n">
-        <v>2055.114361817857</v>
+        <v>2179.14868514278</v>
       </c>
       <c r="AD4" t="n">
-        <v>1660482.6869725</v>
+        <v>1760699.419577688</v>
       </c>
       <c r="AE4" t="n">
-        <v>2271945.667641821</v>
+        <v>2409066.622442447</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.39612490798175e-06</v>
+        <v>2.052921370884656e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.73333333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2055114.361817857</v>
+        <v>2179148.68514278</v>
       </c>
     </row>
     <row r="5">
@@ -9575,28 +9575,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1460.522603921483</v>
+        <v>1552.295579059005</v>
       </c>
       <c r="AB5" t="n">
-        <v>1998.351460395156</v>
+        <v>2123.919293716229</v>
       </c>
       <c r="AC5" t="n">
-        <v>1807.631601718931</v>
+        <v>1921.215417263403</v>
       </c>
       <c r="AD5" t="n">
-        <v>1460522.603921483</v>
+        <v>1552295.579059005</v>
       </c>
       <c r="AE5" t="n">
-        <v>1998351.460395155</v>
+        <v>2123919.293716229</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.482963755379131e-06</v>
+        <v>2.180612900937499e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.40208333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>1807631.601718931</v>
+        <v>1921215.417263403</v>
       </c>
     </row>
     <row r="6">
@@ -9681,28 +9681,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1326.107290785807</v>
+        <v>1417.965517269349</v>
       </c>
       <c r="AB6" t="n">
-        <v>1814.438498977825</v>
+        <v>1940.122976951549</v>
       </c>
       <c r="AC6" t="n">
-        <v>1641.271035215809</v>
+        <v>1754.960363010993</v>
       </c>
       <c r="AD6" t="n">
-        <v>1326107.290785807</v>
+        <v>1417965.517269349</v>
       </c>
       <c r="AE6" t="n">
-        <v>1814438.498977825</v>
+        <v>1940122.976951549</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.535676459237892e-06</v>
+        <v>2.258123899881857e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.66666666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1641271.035215809</v>
+        <v>1754960.363010993</v>
       </c>
     </row>
     <row r="7">
@@ -9787,28 +9787,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1290.979651881655</v>
+        <v>1382.667286164605</v>
       </c>
       <c r="AB7" t="n">
-        <v>1766.37531370711</v>
+        <v>1891.826379905986</v>
       </c>
       <c r="AC7" t="n">
-        <v>1597.794932890225</v>
+        <v>1711.273125402759</v>
       </c>
       <c r="AD7" t="n">
-        <v>1290979.651881655</v>
+        <v>1382667.286164605</v>
       </c>
       <c r="AE7" t="n">
-        <v>1766375.31370711</v>
+        <v>1891826.379905986</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.550149600470789e-06</v>
+        <v>2.279405821557331e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.475</v>
       </c>
       <c r="AH7" t="n">
-        <v>1597794.932890225</v>
+        <v>1711273.125402759</v>
       </c>
     </row>
     <row r="8">
@@ -9893,28 +9893,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1297.633194690132</v>
+        <v>1389.320828973082</v>
       </c>
       <c r="AB8" t="n">
-        <v>1775.47898451126</v>
+        <v>1900.930050710137</v>
       </c>
       <c r="AC8" t="n">
-        <v>1606.02976212991</v>
+        <v>1719.507954642443</v>
       </c>
       <c r="AD8" t="n">
-        <v>1297633.194690132</v>
+        <v>1389320.828973082</v>
       </c>
       <c r="AE8" t="n">
-        <v>1775478.98451126</v>
+        <v>1900930.050710137</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.550454298180955e-06</v>
+        <v>2.279853862013656e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.47083333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1606029.76212991</v>
+        <v>1719507.954642443</v>
       </c>
     </row>
   </sheetData>
@@ -10190,28 +10190,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>7494.662892846417</v>
+        <v>7717.709427408407</v>
       </c>
       <c r="AB2" t="n">
-        <v>10254.5284111844</v>
+        <v>10559.71051989076</v>
       </c>
       <c r="AC2" t="n">
-        <v>9275.850611941594</v>
+        <v>9551.90656851878</v>
       </c>
       <c r="AD2" t="n">
-        <v>7494662.892846417</v>
+        <v>7717709.427408407</v>
       </c>
       <c r="AE2" t="n">
-        <v>10254528.4111844</v>
+        <v>10559710.51989076</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.03201695958343e-07</v>
+        <v>8.726956296864983e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>51</v>
+        <v>50.78541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>9275850.611941595</v>
+        <v>9551906.56851878</v>
       </c>
     </row>
     <row r="3">
@@ -10296,28 +10296,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2695.353336578075</v>
+        <v>2815.416018148663</v>
       </c>
       <c r="AB3" t="n">
-        <v>3687.901345703254</v>
+        <v>3852.176403419825</v>
       </c>
       <c r="AC3" t="n">
-        <v>3335.933217271243</v>
+        <v>3484.530094040829</v>
       </c>
       <c r="AD3" t="n">
-        <v>2695353.336578075</v>
+        <v>2815416.018148663</v>
       </c>
       <c r="AE3" t="n">
-        <v>3687901.345703254</v>
+        <v>3852176.403419824</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.090380442596566e-06</v>
+        <v>1.577532446154409e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>29</v>
+        <v>28.09791666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>3335933.217271243</v>
+        <v>3484530.094040829</v>
       </c>
     </row>
     <row r="4">
@@ -10402,28 +10402,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>2073.802219371285</v>
+        <v>2176.700910525215</v>
       </c>
       <c r="AB4" t="n">
-        <v>2837.467686240694</v>
+        <v>2978.258215047366</v>
       </c>
       <c r="AC4" t="n">
-        <v>2566.663752676789</v>
+        <v>2694.017431014902</v>
       </c>
       <c r="AD4" t="n">
-        <v>2073802.219371286</v>
+        <v>2176700.910525215</v>
       </c>
       <c r="AE4" t="n">
-        <v>2837467.686240694</v>
+        <v>2978258.215047366</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.270076315941543e-06</v>
+        <v>1.837511495271157e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>25</v>
+        <v>24.12083333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>2566663.75267679</v>
+        <v>2694017.431014902</v>
       </c>
     </row>
     <row r="5">
@@ -10508,28 +10508,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1810.128199060479</v>
+        <v>1904.44489500608</v>
       </c>
       <c r="AB5" t="n">
-        <v>2476.69725917465</v>
+        <v>2605.74552352638</v>
       </c>
       <c r="AC5" t="n">
-        <v>2240.324748825456</v>
+        <v>2357.056827947833</v>
       </c>
       <c r="AD5" t="n">
-        <v>1810128.199060479</v>
+        <v>1904444.89500608</v>
       </c>
       <c r="AE5" t="n">
-        <v>2476697.25917465</v>
+        <v>2605745.52352638</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.365512176662402e-06</v>
+        <v>1.975585474712049e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.43541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2240324.748825456</v>
+        <v>2357056.827947834</v>
       </c>
     </row>
     <row r="6">
@@ -10614,28 +10614,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1654.219526427243</v>
+        <v>1748.450881518272</v>
       </c>
       <c r="AB6" t="n">
-        <v>2263.37613507266</v>
+        <v>2392.307632302192</v>
       </c>
       <c r="AC6" t="n">
-        <v>2047.362693409681</v>
+        <v>2163.98914950012</v>
       </c>
       <c r="AD6" t="n">
-        <v>1654219.526427243</v>
+        <v>1748450.881518272</v>
       </c>
       <c r="AE6" t="n">
-        <v>2263376.13507266</v>
+        <v>2392307.632302192</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.425655885498814e-06</v>
+        <v>2.062599739105461e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.4875</v>
       </c>
       <c r="AH6" t="n">
-        <v>2047362.693409681</v>
+        <v>2163989.14950012</v>
       </c>
     </row>
     <row r="7">
@@ -10720,28 +10720,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1538.702915479669</v>
+        <v>1633.019521916718</v>
       </c>
       <c r="AB7" t="n">
-        <v>2105.321211740988</v>
+        <v>2234.369353623169</v>
       </c>
       <c r="AC7" t="n">
-        <v>1904.392310129306</v>
+        <v>2021.124278470457</v>
       </c>
       <c r="AD7" t="n">
-        <v>1538702.915479669</v>
+        <v>1633019.521916718</v>
       </c>
       <c r="AE7" t="n">
-        <v>2105321.211740988</v>
+        <v>2234369.353623169</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.46712416396304e-06</v>
+        <v>2.122594904286249e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.88125</v>
       </c>
       <c r="AH7" t="n">
-        <v>1904392.310129306</v>
+        <v>2021124.278470457</v>
       </c>
     </row>
     <row r="8">
@@ -10826,28 +10826,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1450.560021469306</v>
+        <v>1544.706035705763</v>
       </c>
       <c r="AB8" t="n">
-        <v>1984.720215565968</v>
+        <v>2113.534945673302</v>
       </c>
       <c r="AC8" t="n">
-        <v>1795.301303764669</v>
+        <v>1911.822136823169</v>
       </c>
       <c r="AD8" t="n">
-        <v>1450560.021469306</v>
+        <v>1544706.035705763</v>
       </c>
       <c r="AE8" t="n">
-        <v>1984720.215565968</v>
+        <v>2113534.945673302</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.496975442431968e-06</v>
+        <v>2.165782913263909e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.46458333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>1795301.303764669</v>
+        <v>1911822.136823169</v>
       </c>
     </row>
     <row r="9">
@@ -10932,28 +10932,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1408.629005655352</v>
+        <v>1494.363706392623</v>
       </c>
       <c r="AB9" t="n">
-        <v>1927.348349863456</v>
+        <v>2044.654349760242</v>
       </c>
       <c r="AC9" t="n">
-        <v>1743.404928402885</v>
+        <v>1849.515408309527</v>
       </c>
       <c r="AD9" t="n">
-        <v>1408629.005655352</v>
+        <v>1494363.706392623</v>
       </c>
       <c r="AE9" t="n">
-        <v>1927348.349863456</v>
+        <v>2044654.349760242</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.511680505717154e-06</v>
+        <v>2.187057794533692e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.26666666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1743404.928402885</v>
+        <v>1849515.408309527</v>
       </c>
     </row>
     <row r="10">
@@ -11038,28 +11038,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1408.409169363393</v>
+        <v>1494.143870100664</v>
       </c>
       <c r="AB10" t="n">
-        <v>1927.047560150305</v>
+        <v>2044.353560047091</v>
       </c>
       <c r="AC10" t="n">
-        <v>1743.132845637797</v>
+        <v>1849.243325544439</v>
       </c>
       <c r="AD10" t="n">
-        <v>1408409.169363393</v>
+        <v>1494143.870100664</v>
       </c>
       <c r="AE10" t="n">
-        <v>1927047.560150305</v>
+        <v>2044353.560047091</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.513151012045673e-06</v>
+        <v>2.18918528266067e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.24583333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>1743132.845637797</v>
+        <v>1849243.325544439</v>
       </c>
     </row>
   </sheetData>
@@ -11335,28 +11335,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2820.0559973376</v>
+        <v>2957.599413447411</v>
       </c>
       <c r="AB2" t="n">
-        <v>3858.525027647564</v>
+        <v>4046.717997556279</v>
       </c>
       <c r="AC2" t="n">
-        <v>3490.272814482623</v>
+        <v>3660.504911473735</v>
       </c>
       <c r="AD2" t="n">
-        <v>2820055.9973376</v>
+        <v>2957599.413447411</v>
       </c>
       <c r="AE2" t="n">
-        <v>3858525.027647564</v>
+        <v>4046717.997556279</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.011470637145381e-06</v>
+        <v>1.518909893349206e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>33</v>
+        <v>32.76458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>3490272.814482623</v>
+        <v>3660504.911473735</v>
       </c>
     </row>
     <row r="3">
@@ -11441,28 +11441,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1545.780722549225</v>
+        <v>1642.930433347613</v>
       </c>
       <c r="AB3" t="n">
-        <v>2115.005379624366</v>
+        <v>2247.929899881472</v>
       </c>
       <c r="AC3" t="n">
-        <v>1913.152234621709</v>
+        <v>2033.390625226214</v>
       </c>
       <c r="AD3" t="n">
-        <v>1545780.722549225</v>
+        <v>1642930.433347613</v>
       </c>
       <c r="AE3" t="n">
-        <v>2115005.379624365</v>
+        <v>2247929.899881472</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.408868191657674e-06</v>
+        <v>2.115675686615378e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>24</v>
+        <v>23.525</v>
       </c>
       <c r="AH3" t="n">
-        <v>1913152.234621709</v>
+        <v>2033390.625226214</v>
       </c>
     </row>
     <row r="4">
@@ -11547,28 +11547,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1255.290158783766</v>
+        <v>1344.173468148362</v>
       </c>
       <c r="AB4" t="n">
-        <v>1717.543374741266</v>
+        <v>1839.157439868767</v>
       </c>
       <c r="AC4" t="n">
-        <v>1553.623445643226</v>
+        <v>1663.630835081371</v>
       </c>
       <c r="AD4" t="n">
-        <v>1255290.158783766</v>
+        <v>1344173.468148362</v>
       </c>
       <c r="AE4" t="n">
-        <v>1717543.374741266</v>
+        <v>1839157.439868767</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.550136817921452e-06</v>
+        <v>2.327816609121527e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.37916666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>1553623.445643226</v>
+        <v>1663630.835081371</v>
       </c>
     </row>
     <row r="5">
@@ -11653,28 +11653,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1174.177910216794</v>
+        <v>1263.146470927411</v>
       </c>
       <c r="AB5" t="n">
-        <v>1606.562017832081</v>
+        <v>1728.292727612231</v>
       </c>
       <c r="AC5" t="n">
-        <v>1453.23399367414</v>
+        <v>1563.346895362997</v>
       </c>
       <c r="AD5" t="n">
-        <v>1174177.910216794</v>
+        <v>1263146.470927411</v>
       </c>
       <c r="AE5" t="n">
-        <v>1606562.017832081</v>
+        <v>1728292.727612231</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.587681182559122e-06</v>
+        <v>2.384196403841629e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.875</v>
       </c>
       <c r="AH5" t="n">
-        <v>1453233.99367414</v>
+        <v>1563346.895362997</v>
       </c>
     </row>
     <row r="6">
@@ -11759,28 +11759,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1180.419901555345</v>
+        <v>1269.388462265962</v>
       </c>
       <c r="AB6" t="n">
-        <v>1615.102585758709</v>
+        <v>1736.833295538859</v>
       </c>
       <c r="AC6" t="n">
-        <v>1460.959461784613</v>
+        <v>1571.07236347347</v>
       </c>
       <c r="AD6" t="n">
-        <v>1180419.901555345</v>
+        <v>1269388.462265962</v>
       </c>
       <c r="AE6" t="n">
-        <v>1615102.585758708</v>
+        <v>1736833.295538859</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.587363009977447e-06</v>
+        <v>2.38371860897112e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.87916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1460959.461784613</v>
+        <v>1571072.36347347</v>
       </c>
     </row>
   </sheetData>
@@ -12056,28 +12056,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1901.464339935228</v>
+        <v>2011.393776478333</v>
       </c>
       <c r="AB2" t="n">
-        <v>2601.667396585631</v>
+        <v>2752.07770140837</v>
       </c>
       <c r="AC2" t="n">
-        <v>2353.367911718623</v>
+        <v>2489.423268151268</v>
       </c>
       <c r="AD2" t="n">
-        <v>1901464.339935228</v>
+        <v>2011393.776478333</v>
       </c>
       <c r="AE2" t="n">
-        <v>2601667.396585631</v>
+        <v>2752077.701408369</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.222480882618346e-06</v>
+        <v>1.874976079285952e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.23958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2353367.911718622</v>
+        <v>2489423.268151268</v>
       </c>
     </row>
     <row r="3">
@@ -12162,28 +12162,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1147.697371631967</v>
+        <v>1241.824993827789</v>
       </c>
       <c r="AB3" t="n">
-        <v>1570.330176701409</v>
+        <v>1699.119742007346</v>
       </c>
       <c r="AC3" t="n">
-        <v>1420.460068609271</v>
+        <v>1536.9581385597</v>
       </c>
       <c r="AD3" t="n">
-        <v>1147697.371631967</v>
+        <v>1241824.993827789</v>
       </c>
       <c r="AE3" t="n">
-        <v>1570330.176701409</v>
+        <v>1699119.742007346</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.572968488249063e-06</v>
+        <v>2.412535304945406e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>22</v>
+        <v>21.95</v>
       </c>
       <c r="AH3" t="n">
-        <v>1420460.068609271</v>
+        <v>1536958.1385597</v>
       </c>
     </row>
     <row r="4">
@@ -12268,28 +12268,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1095.664011484075</v>
+        <v>1181.933531196368</v>
       </c>
       <c r="AB4" t="n">
-        <v>1499.135837797224</v>
+        <v>1617.173600610183</v>
       </c>
       <c r="AC4" t="n">
-        <v>1356.060417488219</v>
+        <v>1462.83282188535</v>
       </c>
       <c r="AD4" t="n">
-        <v>1095664.011484075</v>
+        <v>1181933.531196367</v>
       </c>
       <c r="AE4" t="n">
-        <v>1499135.837797224</v>
+        <v>1617173.600610183</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.608100106402119e-06</v>
+        <v>2.466418310070608e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.46875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1356060.417488219</v>
+        <v>1462832.82188535</v>
       </c>
     </row>
   </sheetData>
@@ -22010,28 +22010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1380.301426259426</v>
+        <v>1479.818215230022</v>
       </c>
       <c r="AB2" t="n">
-        <v>1888.589306009348</v>
+        <v>2024.75256704979</v>
       </c>
       <c r="AC2" t="n">
-        <v>1708.344993295554</v>
+        <v>1831.513023808633</v>
       </c>
       <c r="AD2" t="n">
-        <v>1380301.426259426</v>
+        <v>1479818.215230022</v>
       </c>
       <c r="AE2" t="n">
-        <v>1888589.306009348</v>
+        <v>2024752.56704979</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.402425666998309e-06</v>
+        <v>2.191262441325919e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.46458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1708344.993295554</v>
+        <v>1831513.023808633</v>
       </c>
     </row>
     <row r="3">
@@ -22116,28 +22116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1040.586400124704</v>
+        <v>1124.852009769689</v>
       </c>
       <c r="AB3" t="n">
-        <v>1423.77622008261</v>
+        <v>1539.072144735205</v>
       </c>
       <c r="AC3" t="n">
-        <v>1287.8930159204</v>
+        <v>1392.185259342998</v>
       </c>
       <c r="AD3" t="n">
-        <v>1040586.400124704</v>
+        <v>1124852.009769689</v>
       </c>
       <c r="AE3" t="n">
-        <v>1423776.22008261</v>
+        <v>1539072.144735205</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.606763937999652e-06</v>
+        <v>2.510536959118426e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.22708333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>1287893.0159204</v>
+        <v>1392185.259342998</v>
       </c>
     </row>
   </sheetData>
@@ -22413,28 +22413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>974.7214629033148</v>
+        <v>1069.343700771863</v>
       </c>
       <c r="AB2" t="n">
-        <v>1333.656907220353</v>
+        <v>1463.123227510619</v>
       </c>
       <c r="AC2" t="n">
-        <v>1206.374563794467</v>
+        <v>1323.484800183352</v>
       </c>
       <c r="AD2" t="n">
-        <v>974721.4629033147</v>
+        <v>1069343.700771864</v>
       </c>
       <c r="AE2" t="n">
-        <v>1333656.907220353</v>
+        <v>1463123.227510619</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.514246113116956e-06</v>
+        <v>2.467730750179521e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.31458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>1206374.563794467</v>
+        <v>1323484.800183352</v>
       </c>
     </row>
   </sheetData>
@@ -22710,28 +22710,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>4058.942726032289</v>
+        <v>4216.504191831471</v>
       </c>
       <c r="AB2" t="n">
-        <v>5553.624505672788</v>
+        <v>5769.207054300528</v>
       </c>
       <c r="AC2" t="n">
-        <v>5023.594377412116</v>
+        <v>5218.602030170823</v>
       </c>
       <c r="AD2" t="n">
-        <v>4058942.726032289</v>
+        <v>4216504.191831471</v>
       </c>
       <c r="AE2" t="n">
-        <v>5553624.505672788</v>
+        <v>5769207.054300528</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.393594037717795e-07</v>
+        <v>1.240053471434358e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>39</v>
+        <v>38.19166666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>5023594.377412116</v>
+        <v>5218602.030170823</v>
       </c>
     </row>
     <row r="3">
@@ -22816,28 +22816,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1950.483579365731</v>
+        <v>2058.176530475014</v>
       </c>
       <c r="AB3" t="n">
-        <v>2668.737682550661</v>
+        <v>2816.087929336072</v>
       </c>
       <c r="AC3" t="n">
-        <v>2414.037103724888</v>
+        <v>2547.324449764469</v>
       </c>
       <c r="AD3" t="n">
-        <v>1950483.579365731</v>
+        <v>2058176.530475014</v>
       </c>
       <c r="AE3" t="n">
-        <v>2668737.682550661</v>
+        <v>2816087.929336072</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.274503014013135e-06</v>
+        <v>1.8829262885226e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>26</v>
+        <v>25.15</v>
       </c>
       <c r="AH3" t="n">
-        <v>2414037.103724888</v>
+        <v>2547324.449764469</v>
       </c>
     </row>
     <row r="4">
@@ -22922,28 +22922,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1560.191996185009</v>
+        <v>1651.375896870422</v>
       </c>
       <c r="AB4" t="n">
-        <v>2134.723519993366</v>
+        <v>2259.485355660935</v>
       </c>
       <c r="AC4" t="n">
-        <v>1930.988503348477</v>
+        <v>2043.843244524268</v>
       </c>
       <c r="AD4" t="n">
-        <v>1560191.996185009</v>
+        <v>1651375.896870422</v>
       </c>
       <c r="AE4" t="n">
-        <v>2134723.519993366</v>
+        <v>2259485.355660935</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.432681101470035e-06</v>
+        <v>2.116615558666417e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>23</v>
+        <v>22.375</v>
       </c>
       <c r="AH4" t="n">
-        <v>1930988.503348477</v>
+        <v>2043843.244524268</v>
       </c>
     </row>
     <row r="5">
@@ -23028,28 +23028,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1374.957588889057</v>
+        <v>1466.056148719898</v>
       </c>
       <c r="AB5" t="n">
-        <v>1881.277631965743</v>
+        <v>2005.922700511114</v>
       </c>
       <c r="AC5" t="n">
-        <v>1701.731135160672</v>
+        <v>1814.480253304525</v>
       </c>
       <c r="AD5" t="n">
-        <v>1374957.588889057</v>
+        <v>1466056.148719898</v>
       </c>
       <c r="AE5" t="n">
-        <v>1881277.631965743</v>
+        <v>2005922.700511114</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.51484753989609e-06</v>
+        <v>2.238006677593263e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.1625</v>
       </c>
       <c r="AH5" t="n">
-        <v>1701731.135160672</v>
+        <v>1814480.253304525</v>
       </c>
     </row>
     <row r="6">
@@ -23134,28 +23134,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1265.357691726694</v>
+        <v>1356.541502903556</v>
       </c>
       <c r="AB6" t="n">
-        <v>1731.318217461988</v>
+        <v>1856.079930660007</v>
       </c>
       <c r="AC6" t="n">
-        <v>1566.083636707794</v>
+        <v>1678.938267102359</v>
       </c>
       <c r="AD6" t="n">
-        <v>1265357.691726694</v>
+        <v>1356541.502903556</v>
       </c>
       <c r="AE6" t="n">
-        <v>1731318.217461988</v>
+        <v>1856079.930660007</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.55793106566256e-06</v>
+        <v>2.301657451562396e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.57708333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1566083.636707794</v>
+        <v>1678938.267102359</v>
       </c>
     </row>
     <row r="7">
@@ -23240,28 +23240,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1264.83838268498</v>
+        <v>1356.022193861842</v>
       </c>
       <c r="AB7" t="n">
-        <v>1730.607675920816</v>
+        <v>1855.369389118836</v>
       </c>
       <c r="AC7" t="n">
-        <v>1565.440908254061</v>
+        <v>1678.295538648626</v>
       </c>
       <c r="AD7" t="n">
-        <v>1264838.38268498</v>
+        <v>1356022.193861842</v>
       </c>
       <c r="AE7" t="n">
-        <v>1730607.675920816</v>
+        <v>1855369.389118836</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.559931372216004e-06</v>
+        <v>2.304612666068106e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.54791666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>1565440.908254061</v>
+        <v>1678295.538648626</v>
       </c>
     </row>
   </sheetData>
@@ -23537,28 +23537,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>6588.124361475146</v>
+        <v>6801.178250783669</v>
       </c>
       <c r="AB2" t="n">
-        <v>9014.162398904766</v>
+        <v>9305.672129530933</v>
       </c>
       <c r="AC2" t="n">
-        <v>8153.863391009339</v>
+        <v>8417.551842081009</v>
       </c>
       <c r="AD2" t="n">
-        <v>6588124.361475145</v>
+        <v>6801178.250783669</v>
       </c>
       <c r="AE2" t="n">
-        <v>9014162.398904765</v>
+        <v>9305672.129530933</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.470667450410832e-07</v>
+        <v>9.396502781924509e-07</v>
       </c>
       <c r="AG2" t="n">
-        <v>48</v>
+        <v>47.74375</v>
       </c>
       <c r="AH2" t="n">
-        <v>8153863.391009338</v>
+        <v>8417551.84208101</v>
       </c>
     </row>
     <row r="3">
@@ -23643,28 +23643,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>2529.445982315783</v>
+        <v>2648.681149885084</v>
       </c>
       <c r="AB3" t="n">
-        <v>3460.899584285675</v>
+        <v>3624.042400838343</v>
       </c>
       <c r="AC3" t="n">
-        <v>3130.596185364394</v>
+        <v>3278.16888047765</v>
       </c>
       <c r="AD3" t="n">
-        <v>2529445.982315783</v>
+        <v>2648681.149885084</v>
       </c>
       <c r="AE3" t="n">
-        <v>3460899.584285675</v>
+        <v>3624042.400838343</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.124953115175687e-06</v>
+        <v>1.633622057893246e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>28</v>
+        <v>27.46041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>3130596.185364394</v>
+        <v>3278168.88047765</v>
       </c>
     </row>
     <row r="4">
@@ -23749,28 +23749,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1964.010619528951</v>
+        <v>2074.716714748994</v>
       </c>
       <c r="AB4" t="n">
-        <v>2687.245975672874</v>
+        <v>2838.718939161162</v>
       </c>
       <c r="AC4" t="n">
-        <v>2430.778991328069</v>
+        <v>2567.795587774674</v>
       </c>
       <c r="AD4" t="n">
-        <v>1964010.619528951</v>
+        <v>2074716.714748994</v>
       </c>
       <c r="AE4" t="n">
-        <v>2687245.975672874</v>
+        <v>2838718.939161162</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.299619619680361e-06</v>
+        <v>1.887267343803124e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>24</v>
+        <v>23.76875</v>
       </c>
       <c r="AH4" t="n">
-        <v>2430778.991328069</v>
+        <v>2567795.587774674</v>
       </c>
     </row>
     <row r="5">
@@ -23855,28 +23855,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1726.938026090266</v>
+        <v>1820.671585992018</v>
       </c>
       <c r="AB5" t="n">
-        <v>2362.872794425394</v>
+        <v>2491.123186315785</v>
       </c>
       <c r="AC5" t="n">
-        <v>2137.363531238229</v>
+        <v>2253.373885727157</v>
       </c>
       <c r="AD5" t="n">
-        <v>1726938.026090265</v>
+        <v>1820671.585992018</v>
       </c>
       <c r="AE5" t="n">
-        <v>2362872.794425394</v>
+        <v>2491123.186315785</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.392439001530892e-06</v>
+        <v>2.022056774176285e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>23</v>
+        <v>22.18541666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>2137363.531238229</v>
+        <v>2253373.885727157</v>
       </c>
     </row>
     <row r="6">
@@ -23961,28 +23961,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1578.874380184296</v>
+        <v>1672.522599231477</v>
       </c>
       <c r="AB6" t="n">
-        <v>2160.285581989803</v>
+        <v>2288.419206757996</v>
       </c>
       <c r="AC6" t="n">
-        <v>1954.110958024553</v>
+        <v>2070.01568948154</v>
       </c>
       <c r="AD6" t="n">
-        <v>1578874.380184296</v>
+        <v>1672522.599231477</v>
       </c>
       <c r="AE6" t="n">
-        <v>2160285.581989803</v>
+        <v>2288419.206757996</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.450710594290091e-06</v>
+        <v>2.106676975672535e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>22</v>
+        <v>21.29166666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>1954110.958024553</v>
+        <v>2070015.689481541</v>
       </c>
     </row>
     <row r="7">
@@ -24067,28 +24067,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>1464.585038242908</v>
+        <v>1558.318508636109</v>
       </c>
       <c r="AB7" t="n">
-        <v>2003.909862255682</v>
+        <v>2132.160131676524</v>
       </c>
       <c r="AC7" t="n">
-        <v>1812.659517507155</v>
+        <v>1928.669761214855</v>
       </c>
       <c r="AD7" t="n">
-        <v>1464585.038242907</v>
+        <v>1558318.508636109</v>
       </c>
       <c r="AE7" t="n">
-        <v>2003909.862255682</v>
+        <v>2132160.131676524</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.491485881844238e-06</v>
+        <v>2.165889584862022e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>21</v>
+        <v>20.71041666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>1812659.517507155</v>
+        <v>1928669.761214855</v>
       </c>
     </row>
     <row r="8">
@@ -24173,28 +24173,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>1387.946079429709</v>
+        <v>1473.150656490755</v>
       </c>
       <c r="AB8" t="n">
-        <v>1899.049057735225</v>
+        <v>2015.629719030793</v>
       </c>
       <c r="AC8" t="n">
-        <v>1717.806480997067</v>
+        <v>1823.260847600572</v>
       </c>
       <c r="AD8" t="n">
-        <v>1387946.079429709</v>
+        <v>1473150.656490755</v>
       </c>
       <c r="AE8" t="n">
-        <v>1899049.057735225</v>
+        <v>2015629.719030793</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.51713724456012e-06</v>
+        <v>2.203139699006682e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>21</v>
+        <v>20.36041666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1717806.480997067</v>
+        <v>1823260.847600572</v>
       </c>
     </row>
     <row r="9">
@@ -24279,28 +24279,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>1378.900677414953</v>
+        <v>1464.105254475999</v>
       </c>
       <c r="AB9" t="n">
-        <v>1886.672739643662</v>
+        <v>2003.253400939231</v>
       </c>
       <c r="AC9" t="n">
-        <v>1706.611341333892</v>
+        <v>1812.065707937397</v>
       </c>
       <c r="AD9" t="n">
-        <v>1378900.677414953</v>
+        <v>1464105.254475999</v>
       </c>
       <c r="AE9" t="n">
-        <v>1886672.739643662</v>
+        <v>2003253.400939231</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.521882005293693e-06</v>
+        <v>2.210029893530549e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>21</v>
+        <v>20.29791666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>1706611.341333892</v>
+        <v>1812065.707937397</v>
       </c>
     </row>
     <row r="10">
@@ -24385,28 +24385,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>1385.043137722449</v>
+        <v>1470.247714783495</v>
       </c>
       <c r="AB10" t="n">
-        <v>1895.077124822602</v>
+        <v>2011.657786118171</v>
       </c>
       <c r="AC10" t="n">
-        <v>1714.213623786982</v>
+        <v>1819.667990390487</v>
       </c>
       <c r="AD10" t="n">
-        <v>1385043.137722449</v>
+        <v>1470247.714783495</v>
       </c>
       <c r="AE10" t="n">
-        <v>1895077.124822602</v>
+        <v>2011657.786118171</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.521733731520769e-06</v>
+        <v>2.209814574951678e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>21</v>
+        <v>20.3</v>
       </c>
       <c r="AH10" t="n">
-        <v>1714213.623786982</v>
+        <v>1819667.990390487</v>
       </c>
     </row>
   </sheetData>
@@ -24682,28 +24682,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>980.7488331862294</v>
+        <v>1087.398451885575</v>
       </c>
       <c r="AB2" t="n">
-        <v>1341.903821150247</v>
+        <v>1487.826534503802</v>
       </c>
       <c r="AC2" t="n">
-        <v>1213.834403833508</v>
+        <v>1345.830458228414</v>
       </c>
       <c r="AD2" t="n">
-        <v>980748.8331862293</v>
+        <v>1087398.451885574</v>
       </c>
       <c r="AE2" t="n">
-        <v>1341903.821150247</v>
+        <v>1487826.534503802</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.383769363010291e-06</v>
+        <v>2.306661084485436e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.68541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1213834.403833508</v>
+        <v>1345830.458228414</v>
       </c>
     </row>
   </sheetData>
@@ -24979,28 +24979,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2181.00014392912</v>
+        <v>2300.138258566362</v>
       </c>
       <c r="AB2" t="n">
-        <v>2984.140615859381</v>
+        <v>3147.150640308902</v>
       </c>
       <c r="AC2" t="n">
-        <v>2699.33842374942</v>
+        <v>2846.791000251367</v>
       </c>
       <c r="AD2" t="n">
-        <v>2181000.143929121</v>
+        <v>2300138.258566362</v>
       </c>
       <c r="AE2" t="n">
-        <v>2984140.615859381</v>
+        <v>3147150.640308902</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.146200907773829e-06</v>
+        <v>1.744410751364577e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>30</v>
+        <v>29.68125</v>
       </c>
       <c r="AH2" t="n">
-        <v>2699338.42374942</v>
+        <v>2846791.000251367</v>
       </c>
     </row>
     <row r="3">
@@ -25085,28 +25085,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1286.320704719548</v>
+        <v>1381.375263374175</v>
       </c>
       <c r="AB3" t="n">
-        <v>1760.000736661673</v>
+        <v>1890.058577324098</v>
       </c>
       <c r="AC3" t="n">
-        <v>1592.02873653123</v>
+        <v>1709.674039418159</v>
       </c>
       <c r="AD3" t="n">
-        <v>1286320.704719548</v>
+        <v>1381375.263374175</v>
       </c>
       <c r="AE3" t="n">
-        <v>1760000.736661673</v>
+        <v>1890058.577324098</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.513135434026542e-06</v>
+        <v>2.302850836606949e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>22.48541666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>1592028.73653123</v>
+        <v>1709674.039418159</v>
       </c>
     </row>
     <row r="4">
@@ -25191,28 +25191,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1122.516554744552</v>
+        <v>1209.713913277934</v>
       </c>
       <c r="AB4" t="n">
-        <v>1535.876672136808</v>
+        <v>1655.183944958142</v>
       </c>
       <c r="AC4" t="n">
-        <v>1389.294758164518</v>
+        <v>1497.215512316593</v>
       </c>
       <c r="AD4" t="n">
-        <v>1122516.554744551</v>
+        <v>1209713.913277934</v>
       </c>
       <c r="AE4" t="n">
-        <v>1535876.672136808</v>
+        <v>1655183.944958142</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.602460394355974e-06</v>
+        <v>2.438795085217353e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.23125</v>
       </c>
       <c r="AH4" t="n">
-        <v>1389294.758164518</v>
+        <v>1497215.512316593</v>
       </c>
     </row>
     <row r="5">
@@ -25297,28 +25297,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1129.331914824851</v>
+        <v>1216.529273358234</v>
       </c>
       <c r="AB5" t="n">
-        <v>1545.201748471141</v>
+        <v>1664.509021292474</v>
       </c>
       <c r="AC5" t="n">
-        <v>1397.729862301329</v>
+        <v>1505.650616453404</v>
       </c>
       <c r="AD5" t="n">
-        <v>1129331.914824851</v>
+        <v>1216529.273358234</v>
       </c>
       <c r="AE5" t="n">
-        <v>1545201.748471141</v>
+        <v>1664509.021292474</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.602623694100635e-06</v>
+        <v>2.439043612180077e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>22</v>
+        <v>21.22916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>1397729.862301329</v>
+        <v>1505650.616453404</v>
       </c>
     </row>
   </sheetData>
@@ -25594,28 +25594,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>3195.457634732251</v>
+        <v>3342.193682431649</v>
       </c>
       <c r="AB2" t="n">
-        <v>4372.166109482339</v>
+        <v>4572.936843482212</v>
       </c>
       <c r="AC2" t="n">
-        <v>3954.892712366855</v>
+        <v>4136.502169297267</v>
       </c>
       <c r="AD2" t="n">
-        <v>3195457.634732251</v>
+        <v>3342193.682431649</v>
       </c>
       <c r="AE2" t="n">
-        <v>4372166.10948234</v>
+        <v>4572936.843482212</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.49939261733615e-07</v>
+        <v>1.418174482512862e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>35</v>
+        <v>34.47916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>3954892.712366855</v>
+        <v>4136502.169297267</v>
       </c>
     </row>
     <row r="3">
@@ -25700,28 +25700,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1682.056089463262</v>
+        <v>1779.965491953616</v>
       </c>
       <c r="AB3" t="n">
-        <v>2301.463348681029</v>
+        <v>2435.427312626317</v>
       </c>
       <c r="AC3" t="n">
-        <v>2081.814916807008</v>
+        <v>2202.993548052962</v>
       </c>
       <c r="AD3" t="n">
-        <v>1682056.089463262</v>
+        <v>1779965.491953616</v>
       </c>
       <c r="AE3" t="n">
-        <v>2301463.348681029</v>
+        <v>2435427.312626317</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.361233718651049e-06</v>
+        <v>2.032200375636604e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>25</v>
+        <v>24.06041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>2081814.916807008</v>
+        <v>2202993.548052961</v>
       </c>
     </row>
     <row r="4">
@@ -25806,28 +25806,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1356.231498538384</v>
+        <v>1446.059931221727</v>
       </c>
       <c r="AB4" t="n">
-        <v>1855.655769011152</v>
+        <v>1978.562993559261</v>
       </c>
       <c r="AC4" t="n">
-        <v>1678.554586845956</v>
+        <v>1789.731718384567</v>
       </c>
       <c r="AD4" t="n">
-        <v>1356231.498538384</v>
+        <v>1446059.931221727</v>
       </c>
       <c r="AE4" t="n">
-        <v>1855655.769011152</v>
+        <v>1978562.993559261</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.508708565970833e-06</v>
+        <v>2.252367152299475e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>22</v>
+        <v>21.71041666666666</v>
       </c>
       <c r="AH4" t="n">
-        <v>1678554.586845957</v>
+        <v>1789731.718384567</v>
       </c>
     </row>
     <row r="5">
@@ -25912,28 +25912,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>1208.794884740928</v>
+        <v>1298.5379765697</v>
       </c>
       <c r="AB5" t="n">
-        <v>1653.926489569133</v>
+        <v>1776.716946995044</v>
       </c>
       <c r="AC5" t="n">
-        <v>1496.078066705061</v>
+        <v>1607.149575211733</v>
       </c>
       <c r="AD5" t="n">
-        <v>1208794.884740928</v>
+        <v>1298537.9765697</v>
       </c>
       <c r="AE5" t="n">
-        <v>1653926.489569133</v>
+        <v>1776716.946995044</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.575528192954743e-06</v>
+        <v>2.352122887994272e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>21</v>
+        <v>20.78958333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>1496078.066705061</v>
+        <v>1607149.575211733</v>
       </c>
     </row>
     <row r="6">
@@ -26018,28 +26018,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>1207.959467163485</v>
+        <v>1297.702558992256</v>
       </c>
       <c r="AB6" t="n">
-        <v>1652.783434383652</v>
+        <v>1775.573891809563</v>
       </c>
       <c r="AC6" t="n">
-        <v>1495.044103102195</v>
+        <v>1606.115611608867</v>
       </c>
       <c r="AD6" t="n">
-        <v>1207959.467163485</v>
+        <v>1297702.558992256</v>
       </c>
       <c r="AE6" t="n">
-        <v>1652783.434383652</v>
+        <v>1775573.891809563</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.578515423337553e-06</v>
+        <v>2.356582556178275e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>21</v>
+        <v>20.75208333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>1495044.103102195</v>
+        <v>1606115.611608867</v>
       </c>
     </row>
   </sheetData>
